--- a/static/records/20210908.xlsx
+++ b/static/records/20210908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Desktop\Train-web-21-07-08\static\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682CF3BD-EF8D-41E2-A502-F52C8DCDB553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73BD40D-72B3-44B8-ABC7-D16AA92A6C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="462">
   <si>
     <t>Game</t>
   </si>
@@ -1409,6 +1409,10 @@
   </si>
   <si>
     <t>1ekxhAiY7Seuf6s-jXDphjfpMJ4NfHsxC</t>
+  </si>
+  <si>
+    <t>政治大學F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1772,13 +1776,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1841,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1879,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -1917,7 +1922,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -1955,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -1993,7 +1998,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
@@ -2031,7 +2036,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -2069,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H8" s="3">
         <v>7</v>
@@ -2107,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H9" s="3">
         <v>8</v>
@@ -2145,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
@@ -2183,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
@@ -2221,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H12" s="3">
         <v>11</v>
@@ -2259,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
@@ -2297,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
@@ -2335,7 +2340,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H15" s="3">
         <v>14</v>
@@ -2373,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H16" s="3">
         <v>15</v>
@@ -2411,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H17" s="3">
         <v>16</v>
@@ -2449,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H18" s="3">
         <v>17</v>
@@ -2487,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H19" s="3">
         <v>18</v>
@@ -2525,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H20" s="3">
         <v>19</v>
@@ -2563,7 +2568,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H21" s="3">
         <v>20</v>
@@ -2601,7 +2606,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H22" s="3">
         <v>21</v>
@@ -2639,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H23" s="3">
         <v>22</v>
@@ -2677,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H24" s="3">
         <v>23</v>
@@ -2715,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H25" s="3">
         <v>24</v>
@@ -2753,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H26" s="3">
         <v>25</v>
@@ -2791,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H27" s="3">
         <v>26</v>
@@ -2829,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H28" s="3">
         <v>27</v>
@@ -2867,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H29" s="3">
         <v>28</v>
@@ -2905,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H30" s="3">
         <v>29</v>
@@ -2943,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H31" s="3">
         <v>30</v>
@@ -2981,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H32" s="3">
         <v>31</v>
@@ -3019,7 +3024,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H33" s="3">
         <v>32</v>
@@ -3057,7 +3062,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H34" s="3">
         <v>33</v>
@@ -3095,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H35" s="3">
         <v>34</v>
@@ -3133,7 +3138,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H36" s="3">
         <v>35</v>
@@ -3171,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H37" s="3">
         <v>36</v>
@@ -3209,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H38" s="3">
         <v>37</v>
@@ -3247,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H39" s="3">
         <v>38</v>
@@ -3285,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H40" s="3">
         <v>39</v>
@@ -3323,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H41" s="3">
         <v>40</v>
@@ -3361,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H42" s="3">
         <v>41</v>
@@ -3399,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H43" s="3">
         <v>42</v>
@@ -3437,7 +3442,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H44" s="3">
         <v>43</v>
@@ -3475,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H45" s="3">
         <v>44</v>
@@ -3513,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H46" s="3">
         <v>45</v>
@@ -3551,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H47" s="3">
         <v>46</v>
@@ -3589,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H48" s="3">
         <v>47</v>
@@ -3627,7 +3632,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H49" s="3">
         <v>48</v>
@@ -3665,7 +3670,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="H50" s="3">
         <v>49</v>
